--- a/banking-report-service/src/main/resources/template/account.xlsx
+++ b/banking-report-service/src/main/resources/template/account.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nvs/Downloads/Work/KLB/microservices-core-banking/banking-report-service/src/main/resources/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C65215-D2D9-DC4F-BFDD-3842E745FF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B0C291-6DC0-304B-B183-FA428D55D7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{E2CCA71D-B452-3C4E-A0F0-45F48612AB07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,62 +37,51 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Author</author>
+    <author>Nguyễn Văn Sĩ</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{6F304A68-1439-FB4A-A1AA-788DC36EABD4}">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{F5443BD8-3AD4-3149-840B-9C1AD2168027}">
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
+            <b/>
+            <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Helvetica"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Author:
+          <t>Nguyễn Văn Sĩ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
         <r>
           <rPr>
-            <sz val="11"/>
+            <sz val="18"/>
             <color rgb="FF000000"/>
-            <rFont val="Helvetica"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>jx:area(lastCell="E6")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{5FB41C55-CC3F-BF45-9D08-EDCCF51636C9}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Helvetica"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Author:
-</t>
+          <t>jx:area(lastCell="G10")</t>
         </r>
         <r>
           <rPr>
-            <sz val="11"/>
+            <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Helvetica"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="clients" var="client" lastCell="E5")
+          <t xml:space="preserve">
 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Helvetica"/>
-            <family val="2"/>
-          </rPr>
-          <t>jx:if(condition="client.active == true", lastCell="E5", areas=["A5:E5","A8:E8"])</t>
         </r>
       </text>
     </comment>
@@ -101,58 +90,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>${createdAt}</t>
-  </si>
-  <si>
-    <t>List of clients</t>
-  </si>
-  <si>
-    <t>Firstname</t>
-  </si>
-  <si>
-    <t>Lastname</t>
-  </si>
-  <si>
-    <t>Document Type</t>
-  </si>
-  <si>
-    <t>Document Number</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>${client.firstName}</t>
-  </si>
-  <si>
-    <t>${client.lastName}</t>
-  </si>
-  <si>
-    <t>${client.documentType}</t>
-  </si>
-  <si>
-    <t>${client.documentNumber}</t>
-  </si>
-  <si>
-    <t>${client.total}</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>$[SUM(U_(E5,E8))]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Báo cáo tài khoản</t>
+  </si>
+  <si>
+    <t>Thông tin khách hàng</t>
+  </si>
+  <si>
+    <t>Họ và tên</t>
+  </si>
+  <si>
+    <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>Loại chứng từ</t>
+  </si>
+  <si>
+    <t>Số chứng từ</t>
+  </si>
+  <si>
+    <t>Ngày sinh</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>${customer.phoneNumber}</t>
+  </si>
+  <si>
+    <t>${customer.email}</t>
+  </si>
+  <si>
+    <t>${customer.kycDocumentType}</t>
+  </si>
+  <si>
+    <t>${customer.kycDocumentNumber}</t>
+  </si>
+  <si>
+    <t>${customer.dateOfBirth}</t>
+  </si>
+  <si>
+    <t>${customer.address}</t>
+  </si>
+  <si>
+    <t>${customer.fullName}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -161,51 +153,77 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Helvetica"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <u/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -217,13 +235,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,12 +247,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -250,7 +268,22 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -258,15 +291,42 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -274,47 +334,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -322,46 +358,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,114 +706,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9E8742-DA2D-6D4A-BF79-AE3C8E7A31A7}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="7" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
     </row>
-    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="F10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14" t="s">
+      <c r="G10" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E1:J3"/>
+    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/banking-report-service/src/main/resources/template/account.xlsx
+++ b/banking-report-service/src/main/resources/template/account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nvs/Downloads/Work/KLB/microservices-core-banking/banking-report-service/src/main/resources/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B0C291-6DC0-304B-B183-FA428D55D7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB52E217-A211-8C43-822A-4877CFB33A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{E2CCA71D-B452-3C4E-A0F0-45F48612AB07}"/>
   </bookViews>
@@ -68,7 +68,6 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>jx:area(lastCell="G10")</t>
         </r>
@@ -78,10 +77,42 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{E7529203-5413-CA4D-B6F1-2647CDA1228E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nguyễn Văn Sĩ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:each(items="accounts" var="account" lastCell="F18")</t>
         </r>
       </text>
     </comment>
@@ -90,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Báo cáo tài khoản</t>
   </si>
@@ -98,53 +129,92 @@
     <t>Thông tin khách hàng</t>
   </si>
   <si>
-    <t>Họ và tên</t>
-  </si>
-  <si>
-    <t>Số điện thoại</t>
-  </si>
-  <si>
-    <t>Loại chứng từ</t>
-  </si>
-  <si>
-    <t>Số chứng từ</t>
-  </si>
-  <si>
-    <t>Ngày sinh</t>
-  </si>
-  <si>
-    <t>Địa chỉ</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
+    <t>${customer.email}</t>
+  </si>
+  <si>
+    <t>${customer.kycDocumentType}</t>
+  </si>
+  <si>
+    <t>${customer.kycDocumentNumber}</t>
+  </si>
+  <si>
+    <t>${customer.dateOfBirth}</t>
+  </si>
+  <si>
+    <t>${customer.address}</t>
+  </si>
+  <si>
+    <t>${customer.fullName}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thông tin tài khoản </t>
+  </si>
+  <si>
+    <t>Họ và tên (Fullname)</t>
+  </si>
+  <si>
+    <t>Số điện thoại (Phone number)</t>
+  </si>
+  <si>
+    <t>Số chứng từ (Kyc document number)</t>
+  </si>
+  <si>
+    <t>Loại chứng từ (Kyc document type)</t>
+  </si>
+  <si>
+    <t>Ngày sinh (Birthday)</t>
+  </si>
+  <si>
+    <t>Địa chỉ (Address)</t>
+  </si>
+  <si>
+    <t>STT (No)</t>
+  </si>
+  <si>
+    <t>Số tài khoản (Account number)</t>
+  </si>
+  <si>
+    <t>Tên tài khoản (Account name)</t>
+  </si>
+  <si>
+    <t>Loại tài khoản (Account type)</t>
+  </si>
+  <si>
+    <t>Trạng thái (Status)</t>
+  </si>
+  <si>
+    <t>${account.number}</t>
+  </si>
+  <si>
+    <t>${account.name}</t>
+  </si>
+  <si>
+    <t>${account.type}</t>
+  </si>
+  <si>
+    <t>${account.status}</t>
+  </si>
+  <si>
+    <t>${account.id}</t>
+  </si>
+  <si>
+    <t>${account.availableBalance}</t>
+  </si>
+  <si>
     <t>${customer.phoneNumber}</t>
   </si>
   <si>
-    <t>${customer.email}</t>
-  </si>
-  <si>
-    <t>${customer.kycDocumentType}</t>
-  </si>
-  <si>
-    <t>${customer.kycDocumentNumber}</t>
-  </si>
-  <si>
-    <t>${customer.dateOfBirth}</t>
-  </si>
-  <si>
-    <t>${customer.address}</t>
-  </si>
-  <si>
-    <t>${customer.fullName}</t>
+    <t>Số dư khả dụng (Balance)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -166,35 +236,7 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -212,21 +254,19 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,18 +287,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -354,43 +400,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,120 +770,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9E8742-DA2D-6D4A-BF79-AE3C8E7A31A7}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="30.1640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="22" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="39.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="7" t="s">
+    <row r="1" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
+    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12"/>
+    <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
     </row>
-    <row r="7" spans="1:10" ht="25" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row r="15" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="4"/>
     </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E1:J3"/>
+  <mergeCells count="3">
     <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A1:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/banking-report-service/src/main/resources/template/account.xlsx
+++ b/banking-report-service/src/main/resources/template/account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nvs/Downloads/Work/KLB/microservices-core-banking/banking-report-service/src/main/resources/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB52E217-A211-8C43-822A-4877CFB33A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4769EB9D-42A1-E841-9182-16050FE0C8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{E2CCA71D-B452-3C4E-A0F0-45F48612AB07}"/>
   </bookViews>
@@ -80,6 +80,39 @@
           </rPr>
           <t xml:space="preserve">
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{624EDF0A-35DF-E548-9D5D-2E5FD51DCBA4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nguyễn Văn Sĩ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:area(lastCell="F18")</t>
         </r>
       </text>
     </comment>
@@ -773,7 +806,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
